--- a/questions_output.xlsx
+++ b/questions_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Часть</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Номер вопроса</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Вопрос</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Рисунок</t>
         </is>
@@ -453,97 +458,235 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>В1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>За промежуток времени $\Delta t=10$ с тело прошло половину окружности радиусом $R=100 \mathrm{~cm}$. Найдите модуль вектора средней скорости.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>В2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Длина минутной стрелки наручных часов $R=5$ мм. С какой скоростью перемещается конец стрелки?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>В3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Луна движется вокруг Земли с периодом $T=$ $=27,3$ сут. Средний радиус орбиты Луны $R=$ $=3,8 \cdot 10^{5}$ км. Найдите ее нормальное ускорение.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>В4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Искусственный спутник равномерно движется по круговой орбите с периодом $T=4$ ч, при этом ускорение спутника $a=0,46 \mathrm{~m} / \mathrm{c}^{2}$. Определите радиус орбиты (в км).</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>В5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Машина со скоростью $v=36$ км/ч въезжает на закругленный участок шоссе радиусом $R=100$ м и начинает тормозить с ускорением $a=0,3$ м/ $\mathrm{c}^{2}$. Найдите центростремительное ускорение через $t_{1}=20$ с после начала торможения.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>В6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Определите перемещение за 1 мин велосипедиста, движущегося с угловой скоростью 0,1 рад/с по окружности радиусом 60 м.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Ось с двумя дисками, расположенными на расстоянии $l=0,5 \mathrm{~m}$ друг от друга, вращается с частотой $n=1600$ об/мин. Пуля, летящая вдоль оси, пробивает оба диска, причем отверстие от пули во втором диске смещено относительно отверстия в первом на угол $\varphi=12^{\circ}$ (рис. 4).
 Рис. 4
 Найдите скорость пули.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://cdn.mathpix.com/cropped/2024_10_24_39abbe730a365c65c931g-1.jpg?height=252&amp;width=255&amp;top_left_y=1413&amp;top_left_x=1437</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>B8</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Катушка с намотанной на нее нитью (рис. 5) катится без скольжения по горизонтальной плоскости благодаря вытягиванию нити в горизонтальном направлении со скоростью $v=2$ м/с. Радиусы внутренней и внешней поверхностей катушки соответственно равны $r=1$ м и $R=2$ м. Найдите скорость точки $A$ относительно земли.
 Рис. 5</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://cdn.mathpix.com/cropped/2024_10_24_39abbe730a365c65c931g-1.jpg?height=281&amp;width=372&amp;top_left_y=1844&amp;top_left_x=1322</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>C1</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Циркулярная пила имеет диаметр $d_{3}=400$ мм (рис. 6). На ось пилы насажен шкив диаметром $d_{2}=200$ мм, который приводится во вращение посредством ременной передачи от шкива диаметром $d_{1}=110$ мм, насаженного на вал электродвигателя. Какова скорость пилы, если вал двигателя совершает $n=1200$ об/мин?
 Рис. 6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://cdn.mathpix.com/cropped/2024_10_24_39abbe730a365c65c931g-2.jpg?height=347&amp;width=709&amp;top_left_y=683&amp;top_left_x=656</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Диск радиусом $R=20$ см приводится во вращение гирей, подвешенной на нити, которая постепенно сматывается с диска. Гиря начинает опускаться с ускорением $a=0,08$ м/ $\mathbf{c}^{2}$. Чему равно центростремительное ускорение $a_{1}$ верхней точки диска в тот момент, когда гиря пройдет путь $s=1 \mathrm{~m}$ ?</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Автомобиль с колесами радиусом $R=30$ см движется без проскальзывания по горизонтальной дороге со скоростью $v=36 \mathrm{kм} /$ ч. На какую максимальную высоту над поверхностью земли поднимаются капли грязи, отрывающиеся от колес?</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Между двумя стенками, образующими прямой угол, движется без отрыва стержень $A B$ длиной $L_{0}=1$ м. (рис. 7). Скорость точки $B$ постоянна и равна $v_{0}=0,02 \mathrm{~m} /$ с и направлена горизонтально. Определите скорость $v$ точки $M$, расположенной на расстоянии $M B=L=50$ см от точки $B$, в момент времени, когда угол между горизонтальной стенкой и стержнем $A B$ составляет $\alpha=60^{\circ}$.
 Рис. 7</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://cdn.mathpix.com/cropped/2024_10_24_39abbe730a365c65c931g-2.jpg?height=247&amp;width=326&amp;top_left_y=1944&amp;top_left_x=1342</t>
         </is>

--- a/questions_output.xlsx
+++ b/questions_output.xlsx
@@ -34,31 +34,31 @@
     <t>В1</t>
   </si>
   <si>
-    <t>За промежуток времени &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;&amp;#x00394;&lt;/mi&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;10&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; с тело прошло половину окружности радиусом &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;R&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;100&lt;/mn&gt;&lt;mrow&gt;&lt;mtext&gt;&amp;#x000A0;&lt;/mtext&gt;&lt;mi mathvariant="normal"&gt;c&lt;/mi&gt;&lt;mi mathvariant="normal"&gt;m&lt;/mi&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;/math&gt;. Найдите модуль вектора средней скорости.</t>
+    <t>За промежуток времени \Delta t=10 с тело прошло половину окружности радиусом R=100 \mathrm{~cm}. Найдите модуль вектора средней скорости.</t>
   </si>
   <si>
     <t>В2</t>
   </si>
   <si>
-    <t>Длина минутной стрелки наручных часов &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;R&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;5&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; мм. С какой скоростью перемещается конец стрелки?</t>
+    <t>Длина минутной стрелки наручных часов R=5 мм. С какой скоростью перемещается конец стрелки?</t>
   </si>
   <si>
     <t>В3</t>
   </si>
   <si>
-    <t>Луна движется вокруг Земли с периодом &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;T&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;/mrow&gt;&lt;/math&gt; &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;27&lt;/mn&gt;&lt;mo&gt;&amp;#x0002C;&lt;/mo&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; сут. Средний радиус орбиты Луны &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;R&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;/mrow&gt;&lt;/math&gt; &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;mo&gt;&amp;#x0002C;&lt;/mo&gt;&lt;mn&gt;8&lt;/mn&gt;&lt;mi&gt;&amp;#x000B7;&lt;/mi&gt;&lt;msup&gt;&lt;mn&gt;10&lt;/mn&gt;&lt;mrow&gt;&lt;mn&gt;5&lt;/mn&gt;&lt;/mrow&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/math&gt; км. Найдите ее нормальное ускорение.</t>
+    <t>Луна движется вокруг Земли с периодом T= =27,3 сут. Средний радиус орбиты Луны R= =3,8 \cdot 10^{5} км. Найдите ее нормальное ускорение.</t>
   </si>
   <si>
     <t>В4</t>
   </si>
   <si>
-    <t>Искусственный спутник равномерно движется по круговой орбите с периодом &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;T&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;4&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; ч, при этом ускорение спутника &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;a&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;mo&gt;&amp;#x0002C;&lt;/mo&gt;&lt;mn&gt;46&lt;/mn&gt;&lt;mrow&gt;&lt;mtext&gt;&amp;#x000A0;&lt;/mtext&gt;&lt;mi mathvariant="normal"&gt;m&lt;/mi&gt;&lt;/mrow&gt;&lt;mo&gt;&amp;#x0002F;&lt;/mo&gt;&lt;msup&gt;&lt;mi&gt;&amp;#x00063;&lt;/mi&gt;&lt;mrow&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/mrow&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/math&gt;. Определите радиус орбиты (в км).</t>
+    <t>Искусственный спутник равномерно движется по круговой орбите с периодом T=4 ч, при этом ускорение спутника a=0,46 \mathrm{~m} / \mathrm{c}^{2}. Определите радиус орбиты (в км).</t>
   </si>
   <si>
     <t>В5</t>
   </si>
   <si>
-    <t>Машина со скоростью &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;v&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;36&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; км/ч въезжает на закругленный участок шоссе радиусом &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;R&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;100&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; м и начинает тормозить с ускорением &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;a&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;mo&gt;&amp;#x0002C;&lt;/mo&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; м/ &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;msup&gt;&lt;mi&gt;&amp;#x00063;&lt;/mi&gt;&lt;mrow&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/mrow&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/math&gt;. Найдите центростремительное ускорение через &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;t&lt;/mi&gt;&lt;mrow&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;20&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; с после начала торможения.</t>
+    <t>Машина со скоростью v=36 км/ч въезжает на закругленный участок шоссе радиусом R=100 м и начинает тормозить с ускорением a=0,3 м/ \mathrm{c}^{2}. Найдите центростремительное ускорение через t_{1}=20 с после начала торможения.</t>
   </si>
   <si>
     <t>В6</t>
@@ -70,7 +70,7 @@
     <t>B7</t>
   </si>
   <si>
-    <t>Ось с двумя дисками, расположенными на расстоянии &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;l&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;mo&gt;&amp;#x0002C;&lt;/mo&gt;&lt;mn&gt;5&lt;/mn&gt;&lt;mrow&gt;&lt;mtext&gt;&amp;#x000A0;&lt;/mtext&gt;&lt;mi mathvariant="normal"&gt;m&lt;/mi&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;/math&gt; друг от друга, вращается с частотой &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;n&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;1600&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; об/мин. Пуля, летящая вдоль оси, пробивает оба диска, причем отверстие от пули во втором диске смещено относительно отверстия в первом на угол &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;&amp;#x003C6;&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;msup&gt;&lt;mn&gt;12&lt;/mn&gt;&lt;mrow&gt;&lt;mo&gt;&amp;#x02218;&lt;/mo&gt;&lt;/mrow&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/math&gt; (рис. 4).
+    <t>Ось с двумя дисками, расположенными на расстоянии l=0,5 \mathrm{~m} друг от друга, вращается с частотой n=1600 об/мин. Пуля, летящая вдоль оси, пробивает оба диска, причем отверстие от пули во втором диске смещено относительно отверстия в первом на угол \varphi=12^{\circ} (рис. 4).
 Рис. 4
 Найдите скорость пули.</t>
   </si>
@@ -81,7 +81,7 @@
     <t>B8</t>
   </si>
   <si>
-    <t>Катушка с намотанной на нее нитью (рис. 5) катится без скольжения по горизонтальной плоскости благодаря вытягиванию нити в горизонтальном направлении со скоростью &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;v&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; м/с. Радиусы внутренней и внешней поверхностей катушки соответственно равны &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;r&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; м и &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;R&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; м. Найдите скорость точки &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;A&lt;/mi&gt;&lt;/mrow&gt;&lt;/math&gt; относительно земли.
+    <t>Катушка с намотанной на нее нитью (рис. 5) катится без скольжения по горизонтальной плоскости благодаря вытягиванию нити в горизонтальном направлении со скоростью v=2 м/с. Радиусы внутренней и внешней поверхностей катушки соответственно равны r=1 м и R=2 м. Найдите скорость точки A относительно земли.
 Рис. 5</t>
   </si>
   <si>
@@ -94,7 +94,7 @@
     <t>C1</t>
   </si>
   <si>
-    <t>Циркулярная пила имеет диаметр &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;d&lt;/mi&gt;&lt;mrow&gt;&lt;mn&gt;3&lt;/mn&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;400&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; мм (рис. 6). На ось пилы насажен шкив диаметром &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;d&lt;/mi&gt;&lt;mrow&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;200&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; мм, который приводится во вращение посредством ременной передачи от шкива диаметром &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;d&lt;/mi&gt;&lt;mrow&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;110&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; мм, насаженного на вал электродвигателя. Какова скорость пилы, если вал двигателя совершает &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;n&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;1200&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; об/мин?
+    <t>Циркулярная пила имеет диаметр d_{3}=400 мм (рис. 6). На ось пилы насажен шкив диаметром d_{2}=200 мм, который приводится во вращение посредством ременной передачи от шкива диаметром d_{1}=110 мм, насаженного на вал электродвигателя. Какова скорость пилы, если вал двигателя совершает n=1200 об/мин?
 Рис. 6</t>
   </si>
   <si>
@@ -104,19 +104,19 @@
     <t>C2</t>
   </si>
   <si>
-    <t>Диск радиусом &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;R&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;20&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; см приводится во вращение гирей, подвешенной на нити, которая постепенно сматывается с диска. Гиря начинает опускаться с ускорением &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;a&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;mo&gt;&amp;#x0002C;&lt;/mo&gt;&lt;mn&gt;08&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; м/ &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;msup&gt;&lt;mi&gt;&amp;#x1D41C;&lt;/mi&gt;&lt;mrow&gt;&lt;mn&gt;2&lt;/mn&gt;&lt;/mrow&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/math&gt;. Чему равно центростремительное ускорение &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;a&lt;/mi&gt;&lt;mrow&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;/mrow&gt;&lt;/math&gt; верхней точки диска в тот момент, когда гиря пройдет путь &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;s&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;mrow&gt;&lt;mtext&gt;&amp;#x000A0;&lt;/mtext&gt;&lt;mi mathvariant="normal"&gt;m&lt;/mi&gt;&lt;/mrow&gt;&lt;/mrow&gt;&lt;/math&gt; ?</t>
+    <t>Диск радиусом R=20 см приводится во вращение гирей, подвешенной на нити, которая постепенно сматывается с диска. Гиря начинает опускаться с ускорением a=0,08 м/ \mathbf{c}^{2}. Чему равно центростремительное ускорение a_{1} верхней точки диска в тот момент, когда гиря пройдет путь s=1 \mathrm{~m} ?</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>Автомобиль с колесами радиусом &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;R&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;30&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; см движется без проскальзывания по горизонтальной дороге со скоростью &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;v&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;36&lt;/mn&gt;&lt;mrow&gt;&lt;mi mathvariant="normal"&gt;k&lt;/mi&gt;&lt;mi mathvariant="normal"&gt;м&lt;/mi&gt;&lt;/mrow&gt;&lt;mo&gt;&amp;#x0002F;&lt;/mo&gt;&lt;/mrow&gt;&lt;/math&gt; ч. На какую максимальную высоту над поверхностью земли поднимаются капли грязи, отрывающиеся от колес?</t>
+    <t>Автомобиль с колесами радиусом R=30 см движется без проскальзывания по горизонтальной дороге со скоростью v=36 \mathrm{kм} / ч. На какую максимальную высоту над поверхностью земли поднимаются капли грязи, отрывающиеся от колес?</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>Между двумя стенками, образующими прямой угол, движется без отрыва стержень &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;A&lt;/mi&gt;&lt;mi&gt;B&lt;/mi&gt;&lt;/mrow&gt;&lt;/math&gt; длиной &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mrow&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;1&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; м. (рис. 7). Скорость точки &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;B&lt;/mi&gt;&lt;/mrow&gt;&lt;/math&gt; постоянна и равна &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;msub&gt;&lt;mi&gt;v&lt;/mi&gt;&lt;mrow&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;/mrow&gt;&lt;/msub&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;0&lt;/mn&gt;&lt;mo&gt;&amp;#x0002C;&lt;/mo&gt;&lt;mn&gt;02&lt;/mn&gt;&lt;mrow&gt;&lt;mtext&gt;&amp;#x000A0;&lt;/mtext&gt;&lt;mi mathvariant="normal"&gt;m&lt;/mi&gt;&lt;/mrow&gt;&lt;mo&gt;&amp;#x0002F;&lt;/mo&gt;&lt;/mrow&gt;&lt;/math&gt; с и направлена горизонтально. Определите скорость &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;v&lt;/mi&gt;&lt;/mrow&gt;&lt;/math&gt; точки &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;M&lt;/mi&gt;&lt;/mrow&gt;&lt;/math&gt;, расположенной на расстоянии &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;M&lt;/mi&gt;&lt;mi&gt;B&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mi&gt;L&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;mn&gt;50&lt;/mn&gt;&lt;/mrow&gt;&lt;/math&gt; см от точки &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;B&lt;/mi&gt;&lt;/mrow&gt;&lt;/math&gt;, в момент времени, когда угол между горизонтальной стенкой и стержнем &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;A&lt;/mi&gt;&lt;mi&gt;B&lt;/mi&gt;&lt;/mrow&gt;&lt;/math&gt; составляет &lt;math xmlns="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mrow&gt;&lt;mi&gt;&amp;#x003B1;&lt;/mi&gt;&lt;mo&gt;&amp;#x0003D;&lt;/mo&gt;&lt;msup&gt;&lt;mn&gt;60&lt;/mn&gt;&lt;mrow&gt;&lt;mo&gt;&amp;#x02218;&lt;/mo&gt;&lt;/mrow&gt;&lt;/msup&gt;&lt;/mrow&gt;&lt;/math&gt;.
+    <t>Между двумя стенками, образующими прямой угол, движется без отрыва стержень A B длиной L_{0}=1 м. (рис. 7). Скорость точки B постоянна и равна v_{0}=0,02 \mathrm{~m} / с и направлена горизонтально. Определите скорость v точки M, расположенной на расстоянии M B=L=50 см от точки B, в момент времени, когда угол между горизонтальной стенкой и стержнем A B составляет \alpha=60^{\circ}.
 Рис. 7</t>
   </si>
   <si>
@@ -138,7 +138,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -631,7 +631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
